--- a/明日之后共创服数据库/联动.xlsx
+++ b/明日之后共创服数据库/联动.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Desktop\明日之后共创服数据库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\明日之后LifeAfter\Lifeafter database\明日之后共创服数据库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C08D87-A2C6-4D39-AA58-BDBC0339C8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625439F9-EAF1-49AC-98B4-EADC6A5DB24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1164" yWindow="1452" windowWidth="22680" windowHeight="10116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17172" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>联动主题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,15 +43,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特殊联动物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>环太平洋2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023.12.21-2024.01.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossover1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊联动物品/道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -408,19 +412,21 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
